--- a/Combination/Results/model_comparison.xlsx
+++ b/Combination/Results/model_comparison.xlsx
@@ -452,19 +452,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.05322307348251343</v>
+        <v>0.07216674089431763</v>
       </c>
       <c r="D2">
-        <v>0.4711447954177856</v>
+        <v>0.4384965300559998</v>
       </c>
       <c r="E2">
-        <v>0.0004742543096654117</v>
+        <v>0.000464765151264146</v>
       </c>
       <c r="F2">
-        <v>0.01579174771904945</v>
+        <v>0.01522436738014221</v>
       </c>
       <c r="G2">
-        <v>0.98415207862854</v>
+        <v>0.9560439586639404</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -475,19 +475,19 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>-0.2887739303706633</v>
+        <v>-0.2887739303706625</v>
       </c>
       <c r="D3">
-        <v>0.0769221532810741</v>
+        <v>0.07692215328107432</v>
       </c>
       <c r="E3">
-        <v>0.0006455655576301753</v>
+        <v>0.0006455655576301749</v>
       </c>
       <c r="F3">
         <v>0.01929901736357426</v>
       </c>
       <c r="G3">
-        <v>0.2452261447906494</v>
+        <v>0.3115050792694092</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -498,19 +498,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>-0.09464337021079561</v>
+        <v>-0.09464337021079583</v>
       </c>
       <c r="D4">
-        <v>0.05504730406053604</v>
+        <v>0.05504730406053626</v>
       </c>
       <c r="E4">
-        <v>0.0005483227438446582</v>
+        <v>0.0005483227438446584</v>
       </c>
       <c r="F4">
         <v>0.01697553236312231</v>
       </c>
       <c r="G4">
-        <v>0.01880788803100586</v>
+        <v>0.008589029312133789</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -521,19 +521,19 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.01637372141588089</v>
+        <v>0.007453944654461697</v>
       </c>
       <c r="D5">
-        <v>0.03068003333109892</v>
+        <v>0.03306319155197235</v>
       </c>
       <c r="E5">
-        <v>0.0004927126721528426</v>
+        <v>0.0004971807177295142</v>
       </c>
       <c r="F5">
-        <v>0.01553475434241825</v>
+        <v>0.01559845450974366</v>
       </c>
       <c r="G5">
-        <v>2.084005832672119</v>
+        <v>2.20146107673645</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -547,7 +547,7 @@
         <v>-0.1959049368857086</v>
       </c>
       <c r="D6">
-        <v>0.7017182773735207</v>
+        <v>0.7017182773735208</v>
       </c>
       <c r="E6">
         <v>0.0005990461315672778</v>
@@ -556,7 +556,7 @@
         <v>0.01740564232351172</v>
       </c>
       <c r="G6">
-        <v>0.1922800540924072</v>
+        <v>0.1849160194396973</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -567,19 +567,19 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-0.003002524375915527</v>
+        <v>-0.002208709716796875</v>
       </c>
       <c r="D7">
-        <v>-0.006174206733703613</v>
+        <v>8.642673492431641E-05</v>
       </c>
       <c r="E7">
-        <v>1.599833376531024E-05</v>
+        <v>1.597284244780894E-05</v>
       </c>
       <c r="F7">
-        <v>0.002572462661191821</v>
+        <v>0.002567083574831486</v>
       </c>
       <c r="G7">
-        <v>3.141222953796387</v>
+        <v>3.170284032821655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -590,19 +590,19 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-1.353120641642833</v>
+        <v>-0.6630029502910322</v>
       </c>
       <c r="D8">
-        <v>-0.8587847789356506</v>
+        <v>-0.2760794618733573</v>
       </c>
       <c r="E8">
-        <v>3.753331374157498E-05</v>
+        <v>2.650434044160425E-05</v>
       </c>
       <c r="F8">
-        <v>0.004209920138566216</v>
+        <v>0.003633904598431337</v>
       </c>
       <c r="G8">
-        <v>1.177126169204712</v>
+        <v>2.151238203048706</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -613,19 +613,19 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.002815236209826377</v>
+        <v>-0.002685076985136092</v>
       </c>
       <c r="D9">
-        <v>0.004464760697438619</v>
+        <v>0.004467466882558613</v>
       </c>
       <c r="E9">
-        <v>1.599534601813589E-05</v>
+        <v>1.59804326453416E-05</v>
       </c>
       <c r="F9">
-        <v>0.002577164157293054</v>
+        <v>0.002573976874966079</v>
       </c>
       <c r="G9">
-        <v>0.09669709205627441</v>
+        <v>0.001906871795654297</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -636,19 +636,19 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-0.002807416519693628</v>
+        <v>-0.002676210372315246</v>
       </c>
       <c r="D10">
-        <v>0.004464735758557659</v>
+        <v>0.004467433836371493</v>
       </c>
       <c r="E10">
-        <v>1.599522129062386E-05</v>
+        <v>1.598029133246857E-05</v>
       </c>
       <c r="F10">
-        <v>0.002577124036715857</v>
+        <v>0.002573931039378932</v>
       </c>
       <c r="G10">
-        <v>0.1124138832092285</v>
+        <v>0.1495130062103271</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -659,19 +659,19 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.008893401293642134</v>
+        <v>-0.008365708404109995</v>
       </c>
       <c r="D11">
-        <v>0.4065760529366681</v>
+        <v>0.4045409763903601</v>
       </c>
       <c r="E11">
-        <v>1.609229543629435E-05</v>
+        <v>1.607096849738288E-05</v>
       </c>
       <c r="F11">
-        <v>0.002591478102532119</v>
+        <v>0.002588739474390775</v>
       </c>
       <c r="G11">
-        <v>0.5163371562957764</v>
+        <v>0.5271031856536865</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.09464337021079561</v>
+        <v>-0.09464337021079583</v>
       </c>
       <c r="C2">
-        <v>-0.002815236209826377</v>
+        <v>-0.002685076985136092</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -714,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.05322307348251343</v>
+        <v>0.07216674089431763</v>
       </c>
       <c r="C3">
-        <v>-0.003002524375915527</v>
+        <v>-0.002208709716796875</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -728,7 +728,7 @@
         <v>-0.1959049368857086</v>
       </c>
       <c r="C4">
-        <v>-0.008893401293642134</v>
+        <v>-0.008365708404109995</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -736,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.01637372141588089</v>
+        <v>0.007453944654461697</v>
       </c>
       <c r="C5">
-        <v>-0.002807416519693628</v>
+        <v>-0.002676210372315246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -747,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2887739303706633</v>
+        <v>-0.2887739303706625</v>
       </c>
       <c r="C6">
-        <v>-1.353120641642833</v>
+        <v>-0.6630029502910322</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +782,10 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.0005483227438446582</v>
+        <v>0.0005483227438446584</v>
       </c>
       <c r="C2">
-        <v>1.599534601813589E-05</v>
+        <v>1.59804326453416E-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0004742543096654117</v>
+        <v>0.000464765151264146</v>
       </c>
       <c r="C3">
-        <v>1.599833376531024E-05</v>
+        <v>1.597284244780894E-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -807,7 +807,7 @@
         <v>0.0005990461315672778</v>
       </c>
       <c r="C4">
-        <v>1.609229543629435E-05</v>
+        <v>1.607096849738288E-05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -815,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.0004927126721528426</v>
+        <v>0.0004971807177295142</v>
       </c>
       <c r="C5">
-        <v>1.599522129062386E-05</v>
+        <v>1.598029133246857E-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -826,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0006455655576301753</v>
+        <v>0.0006455655576301749</v>
       </c>
       <c r="C6">
-        <v>3.753331374157498E-05</v>
+        <v>2.650434044160425E-05</v>
       </c>
     </row>
   </sheetData>

--- a/Combination/Results/model_comparison.xlsx
+++ b/Combination/Results/model_comparison.xlsx
@@ -8,15 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Full_Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="R2_Comparison" sheetId="2" r:id="rId2"/>
-    <sheet name="MSE_Comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="R2_by_Portfolio_Period" sheetId="2" r:id="rId2"/>
+    <sheet name="MSE_by_Portfolio_Period" sheetId="3" r:id="rId3"/>
+    <sheet name="R2_Hierarchical" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
+  <si>
+    <t>Portfolio</t>
+  </si>
   <si>
     <t>Period</t>
   </si>
@@ -39,12 +43,24 @@
     <t>Training_Time_s</t>
   </si>
   <si>
+    <t>Portfolio_Period</t>
+  </si>
+  <si>
+    <t>DAX Portfolio</t>
+  </si>
+  <si>
+    <t>SDAX Portfolio</t>
+  </si>
+  <si>
     <t>daily</t>
   </si>
   <si>
     <t>intraday</t>
   </si>
   <si>
+    <t>naive_baseline</t>
+  </si>
+  <si>
     <t>pytorch_nn</t>
   </si>
   <si>
@@ -58,6 +74,18 @@
   </si>
   <si>
     <t>random_forest</t>
+  </si>
+  <si>
+    <t>DAX Portfolio_daily</t>
+  </si>
+  <si>
+    <t>DAX Portfolio_intraday</t>
+  </si>
+  <si>
+    <t>SDAX Portfolio_daily</t>
+  </si>
+  <si>
+    <t>SDAX Portfolio_intraday</t>
   </si>
 </sst>
 </file>
@@ -415,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,235 +471,707 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>-0.9377625678946189</v>
+      </c>
+      <c r="E2">
+        <v>-1.287532051138104</v>
+      </c>
+      <c r="F2">
+        <v>0.000970653380874941</v>
+      </c>
+      <c r="G2">
+        <v>0.02330093563047743</v>
+      </c>
+      <c r="H2">
+        <v>0.001111984252929688</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.07216674089431763</v>
-      </c>
-      <c r="D2">
-        <v>0.4384965300559998</v>
-      </c>
-      <c r="E2">
-        <v>0.000464765151264146</v>
-      </c>
-      <c r="F2">
-        <v>0.01522436738014221</v>
-      </c>
-      <c r="G2">
-        <v>0.9560439586639404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>-0.2887739303706625</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>0.07692215328107432</v>
+        <v>-0.1838159561157227</v>
       </c>
       <c r="E3">
-        <v>0.0006455655576301749</v>
+        <v>-0.01156830787658691</v>
       </c>
       <c r="F3">
-        <v>0.01929901736357426</v>
+        <v>0.0005929906037636101</v>
       </c>
       <c r="G3">
-        <v>0.3115050792694092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01854159310460091</v>
+      </c>
+      <c r="H3">
+        <v>0.7715539932250977</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>-0.09464337021079583</v>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>0.05504730406053626</v>
+        <v>-0.7269685669862354</v>
       </c>
       <c r="E4">
-        <v>0.0005483227438446584</v>
+        <v>-0.04259969841002786</v>
       </c>
       <c r="F4">
-        <v>0.01697553236312231</v>
+        <v>0.0008650636078863004</v>
       </c>
       <c r="G4">
-        <v>0.008589029312133789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02249719760079652</v>
+      </c>
+      <c r="H4">
+        <v>3.006895780563354</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>-0.08350762692172142</v>
+      </c>
+      <c r="E5">
+        <v>0.007072796340729326</v>
+      </c>
+      <c r="F5">
+        <v>0.0005427446884878355</v>
+      </c>
+      <c r="G5">
+        <v>0.01739372472396427</v>
+      </c>
+      <c r="H5">
+        <v>0.005356073379516602</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>0.004053821896655929</v>
+      </c>
+      <c r="E6">
+        <v>-0.01484597489415918</v>
+      </c>
+      <c r="F6">
+        <v>0.0004988838885435937</v>
+      </c>
+      <c r="G6">
+        <v>0.01613941635778784</v>
+      </c>
+      <c r="H6">
+        <v>0.3424389362335205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>-0.1736487701066762</v>
+      </c>
+      <c r="E7">
+        <v>0.3463022716616775</v>
+      </c>
+      <c r="F7">
+        <v>0.0005878976947632497</v>
+      </c>
+      <c r="G7">
+        <v>0.01788197424426397</v>
+      </c>
+      <c r="H7">
+        <v>34.56698417663574</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>0.007453944654461697</v>
-      </c>
-      <c r="D5">
-        <v>0.03306319155197235</v>
-      </c>
-      <c r="E5">
-        <v>0.0004971807177295142</v>
-      </c>
-      <c r="F5">
-        <v>0.01559845450974366</v>
-      </c>
-      <c r="G5">
-        <v>2.20146107673645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>-0.1959049368857086</v>
-      </c>
-      <c r="D6">
-        <v>0.7017182773735208</v>
-      </c>
-      <c r="E6">
-        <v>0.0005990461315672778</v>
-      </c>
-      <c r="F6">
-        <v>0.01740564232351172</v>
-      </c>
-      <c r="G6">
-        <v>0.1849160194396973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D8">
+        <v>-1.049652115843234</v>
+      </c>
+      <c r="E8">
+        <v>-1.077014500073884</v>
+      </c>
+      <c r="F8">
+        <v>3.266661520694025E-05</v>
+      </c>
+      <c r="G8">
+        <v>0.003811929780339643</v>
+      </c>
+      <c r="H8">
+        <v>0.0007989406585693359</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>-0.002208709716796875</v>
-      </c>
-      <c r="D7">
-        <v>8.642673492431641E-05</v>
-      </c>
-      <c r="E7">
-        <v>1.597284244780894E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.002567083574831486</v>
-      </c>
-      <c r="G7">
-        <v>3.170284032821655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>-0.6630029502910322</v>
-      </c>
-      <c r="D8">
-        <v>-0.2760794618733573</v>
-      </c>
-      <c r="E8">
-        <v>2.650434044160425E-05</v>
-      </c>
-      <c r="F8">
-        <v>0.003633904598431337</v>
-      </c>
-      <c r="G8">
-        <v>2.151238203048706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>-0.002685076985136092</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>0.004467466882558613</v>
+        <v>-0.0004889965057373047</v>
       </c>
       <c r="E9">
-        <v>1.59804326453416E-05</v>
+        <v>-0.0008932352066040039</v>
       </c>
       <c r="F9">
-        <v>0.002573976874966079</v>
+        <v>1.594543391547631E-05</v>
       </c>
       <c r="G9">
-        <v>0.001906871795654297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.002560410648584366</v>
+      </c>
+      <c r="H9">
+        <v>0.6668076515197754</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>-0.002676210372315246</v>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>0.004467433836371493</v>
+        <v>-0.02126431965327003</v>
       </c>
       <c r="E10">
-        <v>1.598029133246857E-05</v>
+        <v>0.0028990924859017</v>
       </c>
       <c r="F10">
-        <v>0.002573931039378932</v>
+        <v>1.627654190524233E-05</v>
       </c>
       <c r="G10">
-        <v>0.1495130062103271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002611756518361592</v>
+      </c>
+      <c r="H10">
+        <v>7.371273994445801</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>-0.002092600988077731</v>
+      </c>
+      <c r="E11">
+        <v>2.244752499436231E-07</v>
+      </c>
+      <c r="F11">
+        <v>1.597098997686843E-05</v>
+      </c>
+      <c r="G11">
+        <v>0.002564544787618223</v>
+      </c>
+      <c r="H11">
+        <v>0.001975774765014648</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>-0.002092574197472885</v>
+      </c>
+      <c r="E12">
+        <v>2.244735387568753E-07</v>
+      </c>
+      <c r="F12">
+        <v>1.597098954988945E-05</v>
+      </c>
+      <c r="G12">
+        <v>0.00256454473506412</v>
+      </c>
+      <c r="H12">
+        <v>0.2595467567443848</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>-0.02835224656056146</v>
+      </c>
+      <c r="E13">
+        <v>0.07554901173549677</v>
+      </c>
+      <c r="F13">
+        <v>1.638950672454297E-05</v>
+      </c>
+      <c r="G13">
+        <v>0.002606741423110885</v>
+      </c>
+      <c r="H13">
+        <v>70.59025311470032</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>-0.008365708404109995</v>
-      </c>
-      <c r="D11">
-        <v>0.4045409763903601</v>
-      </c>
-      <c r="E11">
-        <v>1.607096849738288E-05</v>
-      </c>
-      <c r="F11">
-        <v>0.002588739474390775</v>
-      </c>
-      <c r="G11">
-        <v>0.5271031856536865</v>
+      <c r="D14">
+        <v>-1.398663240108429</v>
+      </c>
+      <c r="E14">
+        <v>-1.095484326862875</v>
+      </c>
+      <c r="F14">
+        <v>0.0007486076087532853</v>
+      </c>
+      <c r="G14">
+        <v>0.01870560850885875</v>
+      </c>
+      <c r="H14">
+        <v>0.0007557868957519531</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0.03691238164901733</v>
+      </c>
+      <c r="E15">
+        <v>-0.02937567234039307</v>
+      </c>
+      <c r="F15">
+        <v>0.0003005735634360462</v>
+      </c>
+      <c r="G15">
+        <v>0.01206145435571671</v>
+      </c>
+      <c r="H15">
+        <v>0.06618285179138184</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>-0.02768703636511249</v>
+      </c>
+      <c r="E16">
+        <v>0.02665889386523768</v>
+      </c>
+      <c r="F16">
+        <v>0.0003207346166714343</v>
+      </c>
+      <c r="G16">
+        <v>0.01251302178784396</v>
+      </c>
+      <c r="H16">
+        <v>1.305298805236816</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.004606254669872079</v>
+      </c>
+      <c r="E17">
+        <v>0.002343031220137903</v>
+      </c>
+      <c r="F17">
+        <v>0.0003106560850225393</v>
+      </c>
+      <c r="G17">
+        <v>0.011789667135746</v>
+      </c>
+      <c r="H17">
+        <v>0.002279043197631836</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.001558078930343321</v>
+      </c>
+      <c r="E18">
+        <v>0.002254462442266347</v>
+      </c>
+      <c r="F18">
+        <v>0.0003116074013696082</v>
+      </c>
+      <c r="G18">
+        <v>0.01179664744146267</v>
+      </c>
+      <c r="H18">
+        <v>0.1054668426513672</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>-0.03753504546594599</v>
+      </c>
+      <c r="E19">
+        <v>0.1612747239784942</v>
+      </c>
+      <c r="F19">
+        <v>0.0003238081179535994</v>
+      </c>
+      <c r="G19">
+        <v>0.01256136037345717</v>
+      </c>
+      <c r="H19">
+        <v>37.17294692993164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>-1.059368591887015</v>
+      </c>
+      <c r="E20">
+        <v>-1.058819584752501</v>
+      </c>
+      <c r="F20">
+        <v>1.308464775091904E-05</v>
+      </c>
+      <c r="G20">
+        <v>0.00250232625554437</v>
+      </c>
+      <c r="H20">
+        <v>0.0008733272552490234</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>-0.003170251846313477</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004732608795166016</v>
+      </c>
+      <c r="F21">
+        <v>6.37386119706207E-06</v>
+      </c>
+      <c r="G21">
+        <v>0.001713246572762728</v>
+      </c>
+      <c r="H21">
+        <v>0.9405758380889893</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>-0.0346659461596841</v>
+      </c>
+      <c r="E22">
+        <v>-0.02261340213730634</v>
+      </c>
+      <c r="F22">
+        <v>6.573975877220522E-06</v>
+      </c>
+      <c r="G22">
+        <v>0.001764635195142855</v>
+      </c>
+      <c r="H22">
+        <v>8.103259801864624</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>-0.0006413949969967803</v>
+      </c>
+      <c r="E23">
+        <v>4.446663736334955E-06</v>
+      </c>
+      <c r="F23">
+        <v>6.357793466455995E-06</v>
+      </c>
+      <c r="G23">
+        <v>0.001711423861987064</v>
+      </c>
+      <c r="H23">
+        <v>0.001868009567260742</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>-0.001359139555026312</v>
+      </c>
+      <c r="E24">
+        <v>-7.974281972145114E-05</v>
+      </c>
+      <c r="F24">
+        <v>6.362353813134075E-06</v>
+      </c>
+      <c r="G24">
+        <v>0.001710925015598052</v>
+      </c>
+      <c r="H24">
+        <v>0.07204604148864746</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>-0.009276986946530563</v>
+      </c>
+      <c r="E25">
+        <v>0.06953678159937016</v>
+      </c>
+      <c r="F25">
+        <v>6.412661584395379E-06</v>
+      </c>
+      <c r="G25">
+        <v>0.001716156600512917</v>
+      </c>
+      <c r="H25">
+        <v>78.55771493911743</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -681,76 +1181,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>-0.09464337021079583</v>
+        <v>-0.9377625678946189</v>
       </c>
       <c r="C2">
-        <v>-0.002685076985136092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-1.049652115843234</v>
+      </c>
+      <c r="D2">
+        <v>-1.398663240108429</v>
+      </c>
+      <c r="E2">
+        <v>-1.059368591887015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.07216674089431763</v>
+        <v>-0.08350762692172142</v>
       </c>
       <c r="C3">
-        <v>-0.002208709716796875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.002092600988077731</v>
+      </c>
+      <c r="D3">
+        <v>0.004606254669872079</v>
+      </c>
+      <c r="E3">
+        <v>-0.0006413949969967803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.1959049368857086</v>
+        <v>-0.1838159561157227</v>
       </c>
       <c r="C4">
-        <v>-0.008365708404109995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0004889965057373047</v>
+      </c>
+      <c r="D4">
+        <v>0.03691238164901733</v>
+      </c>
+      <c r="E4">
+        <v>-0.003170251846313477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0.007453944654461697</v>
+        <v>-0.1736487701066762</v>
       </c>
       <c r="C5">
-        <v>-0.002676210372315246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.02835224656056146</v>
+      </c>
+      <c r="D5">
+        <v>-0.03753504546594599</v>
+      </c>
+      <c r="E5">
+        <v>-0.009276986946530563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>-0.2887739303706625</v>
+        <v>0.004053821896655929</v>
       </c>
       <c r="C6">
-        <v>-0.6630029502910322</v>
+        <v>-0.002092574197472885</v>
+      </c>
+      <c r="D6">
+        <v>0.001558078930343321</v>
+      </c>
+      <c r="E6">
+        <v>-0.001359139555026312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.7269685669862354</v>
+      </c>
+      <c r="C7">
+        <v>-0.02126431965327003</v>
+      </c>
+      <c r="D7">
+        <v>-0.02768703636511249</v>
+      </c>
+      <c r="E7">
+        <v>-0.0346659461596841</v>
       </c>
     </row>
   </sheetData>
@@ -760,79 +1313,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.0005483227438446584</v>
+        <v>0.000970653380874941</v>
       </c>
       <c r="C2">
-        <v>1.59804326453416E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3.266661520694025E-05</v>
+      </c>
+      <c r="D2">
+        <v>0.0007486076087532853</v>
+      </c>
+      <c r="E2">
+        <v>1.308464775091904E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.000464765151264146</v>
+        <v>0.0005427446884878355</v>
       </c>
       <c r="C3">
-        <v>1.597284244780894E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.597098997686843E-05</v>
+      </c>
+      <c r="D3">
+        <v>0.0003106560850225393</v>
+      </c>
+      <c r="E3">
+        <v>6.357793466455995E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.0005990461315672778</v>
+        <v>0.0005929906037636101</v>
       </c>
       <c r="C4">
-        <v>1.607096849738288E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.594543391547631E-05</v>
+      </c>
+      <c r="D4">
+        <v>0.0003005735634360462</v>
+      </c>
+      <c r="E4">
+        <v>6.37386119706207E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0.0004971807177295142</v>
+        <v>0.0005878976947632497</v>
       </c>
       <c r="C5">
-        <v>1.598029133246857E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.638950672454297E-05</v>
+      </c>
+      <c r="D5">
+        <v>0.0003238081179535994</v>
+      </c>
+      <c r="E5">
+        <v>6.412661584395379E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0.0006455655576301749</v>
+        <v>0.0004988838885435937</v>
       </c>
       <c r="C6">
-        <v>2.650434044160425E-05</v>
+        <v>1.597098954988945E-05</v>
+      </c>
+      <c r="D6">
+        <v>0.0003116074013696082</v>
+      </c>
+      <c r="E6">
+        <v>6.362353813134075E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.0008650636078863004</v>
+      </c>
+      <c r="C7">
+        <v>1.627654190524233E-05</v>
+      </c>
+      <c r="D7">
+        <v>0.0003207346166714343</v>
+      </c>
+      <c r="E7">
+        <v>6.573975877220522E-06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>-0.9377625678946189</v>
+      </c>
+      <c r="C4">
+        <v>-1.049652115843234</v>
+      </c>
+      <c r="D4">
+        <v>-1.398663240108429</v>
+      </c>
+      <c r="E4">
+        <v>-1.059368591887015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>-0.08350762692172142</v>
+      </c>
+      <c r="C5">
+        <v>-0.002092600988077731</v>
+      </c>
+      <c r="D5">
+        <v>0.004606254669872079</v>
+      </c>
+      <c r="E5">
+        <v>-0.0006413949969967803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.1838159561157227</v>
+      </c>
+      <c r="C6">
+        <v>-0.0004889965057373047</v>
+      </c>
+      <c r="D6">
+        <v>0.03691238164901733</v>
+      </c>
+      <c r="E6">
+        <v>-0.003170251846313477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>-0.1736487701066762</v>
+      </c>
+      <c r="C7">
+        <v>-0.02835224656056146</v>
+      </c>
+      <c r="D7">
+        <v>-0.03753504546594599</v>
+      </c>
+      <c r="E7">
+        <v>-0.009276986946530563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.004053821896655929</v>
+      </c>
+      <c r="C8">
+        <v>-0.002092574197472885</v>
+      </c>
+      <c r="D8">
+        <v>0.001558078930343321</v>
+      </c>
+      <c r="E8">
+        <v>-0.001359139555026312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>-0.7269685669862354</v>
+      </c>
+      <c r="C9">
+        <v>-0.02126431965327003</v>
+      </c>
+      <c r="D9">
+        <v>-0.02768703636511249</v>
+      </c>
+      <c r="E9">
+        <v>-0.0346659461596841</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combination/Results/model_comparison.xlsx
+++ b/Combination/Results/model_comparison.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
+  <si>
+    <t>Portfolio</t>
+  </si>
   <si>
     <t>Period</t>
   </si>
@@ -39,10 +42,19 @@
     <t>Training_Time_s</t>
   </si>
   <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>SDAX</t>
+  </si>
+  <si>
     <t>daily</t>
   </si>
   <si>
     <t>intraday</t>
+  </si>
+  <si>
+    <t>naive_baseline</t>
   </si>
   <si>
     <t>pytorch_nn</t>
@@ -415,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,235 +455,620 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0.07216674089431763</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>0.4384965300559998</v>
-      </c>
-      <c r="E2">
-        <v>0.000464765151264146</v>
+        <v>-0.9377625678946189</v>
       </c>
       <c r="F2">
-        <v>0.01522436738014221</v>
+        <v>0.000970653380874941</v>
       </c>
       <c r="G2">
-        <v>0.9560439586639404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.02330093563047743</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>-0.2887739303706625</v>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>0.07692215328107432</v>
+        <v>-0.3787727355957031</v>
       </c>
       <c r="E3">
-        <v>0.0006455655576301749</v>
+        <v>0.08008354902267456</v>
       </c>
       <c r="F3">
-        <v>0.01929901736357426</v>
+        <v>0.0006906472845003009</v>
       </c>
       <c r="G3">
-        <v>0.3115050792694092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01987810432910919</v>
+      </c>
+      <c r="H3">
+        <v>0.7019908428192139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>-0.09464337021079583</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>0.05504730406053626</v>
+        <v>-2.902768502809117</v>
       </c>
       <c r="E4">
-        <v>0.0005483227438446584</v>
+        <v>0.4508679585207861</v>
       </c>
       <c r="F4">
-        <v>0.01697553236312231</v>
+        <v>0.001954953359502565</v>
       </c>
       <c r="G4">
-        <v>0.008589029312133789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03533084385290322</v>
+      </c>
+      <c r="H4">
+        <v>2.928399085998535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.007453944654461697</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.03306319155197235</v>
+        <v>-0.1119449133682993</v>
       </c>
       <c r="E5">
-        <v>0.0004971807177295142</v>
+        <v>0.05973441282662506</v>
       </c>
       <c r="F5">
-        <v>0.01559845450974366</v>
+        <v>0.0005569893378012291</v>
       </c>
       <c r="G5">
-        <v>2.20146107673645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.0172564454417488</v>
+      </c>
+      <c r="H5">
+        <v>0.005517721176147461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>-0.1959049368857086</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>0.7017182773735208</v>
+        <v>-0.01581008867048639</v>
       </c>
       <c r="E6">
-        <v>0.0005990461315672778</v>
+        <v>0.03776894555260246</v>
       </c>
       <c r="F6">
-        <v>0.01740564232351172</v>
+        <v>0.0005088340095072487</v>
       </c>
       <c r="G6">
-        <v>0.1849160194396973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01608100316071425</v>
+      </c>
+      <c r="H6">
+        <v>0.3201911449432373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>-0.002208709716796875</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>8.642673492431641E-05</v>
+        <v>-0.06633547455185917</v>
       </c>
       <c r="E7">
-        <v>1.597284244780894E-05</v>
+        <v>0.5175241014184881</v>
       </c>
       <c r="F7">
-        <v>0.002567083574831486</v>
+        <v>0.0005341429082538327</v>
       </c>
       <c r="G7">
-        <v>3.170284032821655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01619897236060925</v>
+      </c>
+      <c r="H7">
+        <v>57.40021085739136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>-0.6630029502910322</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>-0.2760794618733573</v>
-      </c>
-      <c r="E8">
-        <v>2.650434044160425E-05</v>
+        <v>-1.049652115843234</v>
       </c>
       <c r="F8">
-        <v>0.003633904598431337</v>
+        <v>3.266661520694025E-05</v>
       </c>
       <c r="G8">
-        <v>2.151238203048706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.003811929780339643</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>-0.002685076985136092</v>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>0.004467466882558613</v>
+        <v>-1.048597097396851</v>
       </c>
       <c r="E9">
-        <v>1.59804326453416E-05</v>
+        <v>-1.051158666610718</v>
       </c>
       <c r="F9">
-        <v>0.002573976874966079</v>
+        <v>3.264980114181526E-05</v>
       </c>
       <c r="G9">
-        <v>0.001906871795654297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.004239308647811413</v>
+      </c>
+      <c r="H9">
+        <v>0.530987024307251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>-0.002676210372315246</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>0.004467433836371493</v>
+        <v>-2.293326927189244</v>
       </c>
       <c r="E10">
-        <v>1.598029133246857E-05</v>
+        <v>-1.133518049724493</v>
       </c>
       <c r="F10">
-        <v>0.002573931039378932</v>
+        <v>5.248785520702203E-05</v>
       </c>
       <c r="G10">
-        <v>0.1495130062103271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.005328786542780415</v>
+      </c>
+      <c r="H10">
+        <v>9.28921914100647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>-0.003935714708685145</v>
+      </c>
+      <c r="E11">
+        <v>0.004742015391811627</v>
+      </c>
+      <c r="F11">
+        <v>1.600036485772178E-05</v>
+      </c>
+      <c r="G11">
+        <v>0.002574190856212771</v>
+      </c>
+      <c r="H11">
+        <v>0.003904104232788086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>-0.003870313579833917</v>
+      </c>
+      <c r="E12">
+        <v>0.004741711769588375</v>
+      </c>
+      <c r="F12">
+        <v>1.599932251814924E-05</v>
+      </c>
+      <c r="G12">
+        <v>0.002574084109666411</v>
+      </c>
+      <c r="H12">
+        <v>0.2066378593444824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>-0.009972931380228811</v>
+      </c>
+      <c r="E13">
+        <v>0.1454008017296941</v>
+      </c>
+      <c r="F13">
+        <v>1.609658383674062E-05</v>
+      </c>
+      <c r="G13">
+        <v>0.00258246792599825</v>
+      </c>
+      <c r="H13">
+        <v>210.8361129760742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>-1.398663240108429</v>
+      </c>
+      <c r="F14">
+        <v>0.0007486076087532853</v>
+      </c>
+      <c r="G14">
+        <v>0.01870560850885875</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>-0.008365708404109995</v>
-      </c>
-      <c r="D11">
-        <v>0.4045409763903601</v>
-      </c>
-      <c r="E11">
-        <v>1.607096849738288E-05</v>
-      </c>
-      <c r="F11">
-        <v>0.002588739474390775</v>
-      </c>
-      <c r="G11">
-        <v>0.5271031856536865</v>
+      <c r="D15">
+        <v>-0.927384614944458</v>
+      </c>
+      <c r="E15">
+        <v>-0.1569807529449463</v>
+      </c>
+      <c r="F15">
+        <v>0.0006015245453454554</v>
+      </c>
+      <c r="G15">
+        <v>0.01845755241811275</v>
+      </c>
+      <c r="H15">
+        <v>0.08664298057556152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>-1.500150434950239</v>
+      </c>
+      <c r="E16">
+        <v>0.6051389516964343</v>
+      </c>
+      <c r="F16">
+        <v>0.0007802811196401958</v>
+      </c>
+      <c r="G16">
+        <v>0.02129708924704297</v>
+      </c>
+      <c r="H16">
+        <v>2.102381706237793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>-0.07995854462853136</v>
+      </c>
+      <c r="E17">
+        <v>0.08510096958556768</v>
+      </c>
+      <c r="F17">
+        <v>0.0003370482234140117</v>
+      </c>
+      <c r="G17">
+        <v>0.01252953513185359</v>
+      </c>
+      <c r="H17">
+        <v>0.004385948181152344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>-0.07032669981088691</v>
+      </c>
+      <c r="E18">
+        <v>0.08455799618756099</v>
+      </c>
+      <c r="F18">
+        <v>0.0003340421856358643</v>
+      </c>
+      <c r="G18">
+        <v>0.01241272421393872</v>
+      </c>
+      <c r="H18">
+        <v>0.05767917633056641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>-0.06302766965832962</v>
+      </c>
+      <c r="E19">
+        <v>0.3170171097787061</v>
+      </c>
+      <c r="F19">
+        <v>0.0003317642045431632</v>
+      </c>
+      <c r="G19">
+        <v>0.01236580474625176</v>
+      </c>
+      <c r="H19">
+        <v>67.92499494552612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>-1.059368591887015</v>
+      </c>
+      <c r="F20">
+        <v>1.308464775091904E-05</v>
+      </c>
+      <c r="G20">
+        <v>0.00250232625554437</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>-10.92105960845947</v>
+      </c>
+      <c r="E21">
+        <v>-39.74939727783203</v>
+      </c>
+      <c r="F21">
+        <v>7.574305345769972E-05</v>
+      </c>
+      <c r="G21">
+        <v>0.006196912378072739</v>
+      </c>
+      <c r="H21">
+        <v>0.3890790939331055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>-3.143672649115794</v>
+      </c>
+      <c r="E22">
+        <v>-1.839545741592004</v>
+      </c>
+      <c r="F22">
+        <v>2.632772842238839E-05</v>
+      </c>
+      <c r="G22">
+        <v>0.003821092399144864</v>
+      </c>
+      <c r="H22">
+        <v>11.05319094657898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>-0.007867836272500872</v>
+      </c>
+      <c r="E23">
+        <v>0.00279156635029354</v>
+      </c>
+      <c r="F23">
+        <v>6.403708238078316E-06</v>
+      </c>
+      <c r="G23">
+        <v>0.001718696347289051</v>
+      </c>
+      <c r="H23">
+        <v>0.002543926239013672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>-0.008940617459214373</v>
+      </c>
+      <c r="E24">
+        <v>0.002707080716560673</v>
+      </c>
+      <c r="F24">
+        <v>6.410524387454031E-06</v>
+      </c>
+      <c r="G24">
+        <v>0.001719076536128324</v>
+      </c>
+      <c r="H24">
+        <v>0.07599997520446777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>-0.004054387410699967</v>
+      </c>
+      <c r="E25">
+        <v>0.1118833992074486</v>
+      </c>
+      <c r="F25">
+        <v>6.379478658551182E-06</v>
+      </c>
+      <c r="G25">
+        <v>0.001712072802195992</v>
+      </c>
+      <c r="H25">
+        <v>226.9123978614807</v>
       </c>
     </row>
   </sheetData>
@@ -681,158 +1078,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>-0.09464337021079583</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>-0.002685076985136092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+        <v>-0.9377625678946189</v>
+      </c>
+      <c r="D2">
+        <v>-1.049652115843234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>-0.1119449133682993</v>
+      </c>
+      <c r="D3">
+        <v>-0.003935714708685145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>-0.3787727355957031</v>
+      </c>
+      <c r="D4">
+        <v>-1.048597097396851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>-0.06633547455185917</v>
+      </c>
+      <c r="D5">
+        <v>-0.009972931380228811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>-0.01581008867048639</v>
+      </c>
+      <c r="D6">
+        <v>-0.003870313579833917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>-2.902768502809117</v>
+      </c>
+      <c r="D7">
+        <v>-2.293326927189244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.07216674089431763</v>
-      </c>
-      <c r="C3">
-        <v>-0.002208709716796875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>-1.398663240108429</v>
+      </c>
+      <c r="D8">
+        <v>-1.059368591887015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>-0.07995854462853136</v>
+      </c>
+      <c r="D9">
+        <v>-0.007867836272500872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>-0.1959049368857086</v>
-      </c>
-      <c r="C4">
-        <v>-0.008365708404109995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.007453944654461697</v>
-      </c>
-      <c r="C5">
-        <v>-0.002676210372315246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-0.2887739303706625</v>
-      </c>
-      <c r="C6">
-        <v>-0.6630029502910322</v>
+      <c r="C10">
+        <v>-0.927384614944458</v>
+      </c>
+      <c r="D10">
+        <v>-10.92105960845947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>-0.06302766965832962</v>
+      </c>
+      <c r="D11">
+        <v>-0.004054387410699967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>-0.07032669981088691</v>
+      </c>
+      <c r="D12">
+        <v>-0.008940617459214373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>-1.500150434950239</v>
+      </c>
+      <c r="D13">
+        <v>-3.143672649115794</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.0005483227438446584</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1.59804326453416E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+        <v>0.000970653380874941</v>
+      </c>
+      <c r="D2">
+        <v>3.266661520694025E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.0005569893378012291</v>
+      </c>
+      <c r="D3">
+        <v>1.600036485772178E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0.0006906472845003009</v>
+      </c>
+      <c r="D4">
+        <v>3.264980114181526E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.0005341429082538327</v>
+      </c>
+      <c r="D5">
+        <v>1.609658383674062E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0.0005088340095072487</v>
+      </c>
+      <c r="D6">
+        <v>1.599932251814924E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.001954953359502565</v>
+      </c>
+      <c r="D7">
+        <v>5.248785520702203E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.000464765151264146</v>
-      </c>
-      <c r="C3">
-        <v>1.597284244780894E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.0007486076087532853</v>
+      </c>
+      <c r="D8">
+        <v>1.308464775091904E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.0003370482234140117</v>
+      </c>
+      <c r="D9">
+        <v>6.403708238078316E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>0.0005990461315672778</v>
-      </c>
-      <c r="C4">
-        <v>1.607096849738288E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.0004971807177295142</v>
-      </c>
-      <c r="C5">
-        <v>1.598029133246857E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.0006455655576301749</v>
-      </c>
-      <c r="C6">
-        <v>2.650434044160425E-05</v>
+      <c r="C10">
+        <v>0.0006015245453454554</v>
+      </c>
+      <c r="D10">
+        <v>7.574305345769972E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.0003317642045431632</v>
+      </c>
+      <c r="D11">
+        <v>6.379478658551182E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.0003340421856358643</v>
+      </c>
+      <c r="D12">
+        <v>6.410524387454031E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0.0007802811196401958</v>
+      </c>
+      <c r="D13">
+        <v>2.632772842238839E-05</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>